--- a/AssetsTest/DataProvider/inputData.xlsx
+++ b/AssetsTest/DataProvider/inputData.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowHeight="2985" windowWidth="14085" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14085" windowHeight="2985"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" r:id="rId1" sheetId="2"/>
-    <sheet name="Hoja2" r:id="rId2" sheetId="3"/>
+    <sheet name="config" sheetId="3" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t>Mervin</t>
   </si>
@@ -314,48 +314,35 @@
     <t>Determinar Cobertura</t>
   </si>
   <si>
-    <t>2292</t>
-  </si>
-  <si>
-    <t>2293</t>
-  </si>
-  <si>
-    <t>2299</t>
-  </si>
-  <si>
-    <t>2300</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
     <t>2313</t>
   </si>
   <si>
     <t>2314</t>
+  </si>
+  <si>
+    <t>Datos del Proyecto</t>
+  </si>
+  <si>
+    <t>Path del Proyecto</t>
+  </si>
+  <si>
+    <t>Path de Reportes</t>
+  </si>
+  <si>
+    <t>URL Process Center</t>
+  </si>
+  <si>
+    <t>Id Proyecto</t>
+  </si>
+  <si>
+    <t>NombreProyecto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,8 +370,16 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +401,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,36 +448,47 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0"/>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0">
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="4" fontId="1" numFmtId="49" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -481,10 +505,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -519,7 +543,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -554,7 +578,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -642,7 +666,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -651,13 +675,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -667,7 +691,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -676,7 +700,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -685,7 +709,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -695,12 +719,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -731,7 +755,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -750,7 +774,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -762,53 +786,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="16"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="12"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="41.0" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="24.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="27.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="20.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="23.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="28.0" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="23.28515625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="20.85546875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="17.42578125" collapsed="true"/>
-    <col min="10" max="11" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" style="1" width="29.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="1" width="19.42578125" collapsed="true"/>
-    <col min="15" max="16384" style="1" width="11.42578125" collapsed="true"/>
+    <col min="1" max="1" width="41" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="29.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="19.42578125" style="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="11.42578125" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
       <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -841,7 +924,7 @@
       </c>
       <c r="N3" s="8"/>
     </row>
-    <row customFormat="1" r="4" s="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -895,7 +978,7 @@
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row customFormat="1" r="6" s="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
@@ -934,7 +1017,7 @@
       </c>
       <c r="N6"/>
     </row>
-    <row customFormat="1" r="7" s="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
@@ -973,7 +1056,7 @@
       </c>
       <c r="N7"/>
     </row>
-    <row customFormat="1" r="8" s="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>39</v>
       </c>
@@ -996,10 +1079,10 @@
         <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="N10" s="9"/>
     </row>
@@ -1123,7 +1206,7 @@
         <v>57</v>
       </c>
     </row>
-    <row ht="36" r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>65</v>
       </c>
@@ -1140,7 +1223,7 @@
         <v>72</v>
       </c>
     </row>
-    <row customFormat="1" ht="36" r="22" s="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>74</v>
       </c>
@@ -1157,8 +1240,8 @@
         <v>73</v>
       </c>
     </row>
-    <row customFormat="1" r="23" s="2" spans="1:12" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="24" s="2" spans="1:12" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>75</v>
@@ -1197,7 +1280,7 @@
         <v>97</v>
       </c>
     </row>
-    <row customFormat="1" r="26" s="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -1235,29 +1318,17 @@
         <v>96</v>
       </c>
     </row>
-    <row customFormat="1" r="27" s="2" spans="1:12" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="28" s="2" spans="1:12" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="29" s="2" spans="1:12" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="30" s="2" spans="1:12" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="31" s="2" spans="1:12" x14ac:dyDescent="0.25"/>
-    <row customFormat="1" r="32" s="2" spans="1:12" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:M1"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>